--- a/trunk/7. Reference/Master.xlsx
+++ b/trunk/7. Reference/Master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Month</t>
   </si>
@@ -31,35 +31,29 @@
     <t>Requirement</t>
   </si>
   <si>
-    <t>Implement</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>Define process,rule,....</t>
   </si>
   <si>
-    <t>Architect</t>
+    <t>Sprint #1 Planning Meeting</t>
   </si>
   <si>
-    <t xml:space="preserve"> Detal design</t>
+    <t>Sprint #1</t>
   </si>
   <si>
-    <t>RE</t>
+    <t>Sprint #1 Review Meeting</t>
   </si>
   <si>
-    <t>AR</t>
+    <t>Sprint #2 Planning Meeting</t>
   </si>
   <si>
-    <t>DD,IM,TE</t>
+    <t>Architecture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,8 +74,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,14 +107,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -139,6 +140,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -152,12 +168,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AF18"/>
+  <dimension ref="B2:AF13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +746,7 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -759,11 +779,11 @@
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -798,11 +818,11 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -828,26 +848,26 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>8</v>
+      <c r="B8" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -863,8 +883,8 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>9</v>
+      <c r="B9" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -872,34 +892,34 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>5</v>
+      <c r="B10" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -911,30 +931,30 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="1"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>6</v>
+      <c r="B11" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -946,101 +966,91 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="1"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <f>C15/C18</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <f>C16/C18</f>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <f>C17/C18</f>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <f>SUM(C15:C17)</f>
-        <v>25</v>
-      </c>
+      <c r="B12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/7. Reference/Master.xlsx
+++ b/trunk/7. Reference/Master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Month</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>Architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
   </si>
 </sst>
 </file>
@@ -482,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AF13"/>
+  <dimension ref="A2:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,8 +862,8 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -894,7 +900,6 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
       <c r="L9" s="6"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -950,7 +955,7 @@
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
+      <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
@@ -985,7 +990,7 @@
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
+      <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -1020,7 +1025,7 @@
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
+      <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
@@ -1052,6 +1057,26 @@
       <c r="AE13" s="8"/>
       <c r="AF13" s="8"/>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <f>17/26</f>
+        <v>0.65384615384615385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
